--- a/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
@@ -67,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -103,6 +103,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -111,9 +162,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,91 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,79 +262,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,11 +471,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,32 +545,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,21 +568,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,8 +1093,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6">
-        <v>43460</v>
+        <v>43098</v>
       </c>
       <c r="B4" s="7">
         <v>53</v>

--- a/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19530" windowHeight="7380"/>
+    <workbookView windowWidth="15870" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>优惠券设置了可使用店铺范围</t>
+  </si>
+  <si>
+    <t>会员卡在前台消费时提示“操作失败，请稍后再试”（产品问题导致）</t>
+  </si>
+  <si>
+    <t>在公众号中访问： http://m.hualala.com/clearSession.jsp后让客户退出微信，找韩晓鹏处理数据，处理后客户登录微信即可</t>
   </si>
 </sst>
 </file>
@@ -66,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -103,6 +109,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -112,66 +164,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,63 +209,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,186 +274,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -472,31 +478,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +521,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,16 +578,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,137 +620,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,8 +772,17 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,8 +1134,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1151,9 +1192,7 @@
       <c r="A3" s="6">
         <v>43088</v>
       </c>
-      <c r="B3" s="7">
-        <v>51</v>
-      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1210,7 @@
       <c r="A4" s="6">
         <v>43098</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1187,33 +1226,51 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" s="6">
+        <v>43138</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="7"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView windowWidth="20490" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -31,7 +31,7 @@
     <t>问题反馈</t>
   </si>
   <si>
-    <t>解决方法</t>
+    <t>解决方法或原因</t>
   </si>
   <si>
     <t>京茶山</t>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>在公众号中访问： http://m.hualala.com/clearSession.jsp后让客户退出微信，找韩晓鹏处理数据，处理后客户登录微信即可</t>
+  </si>
+  <si>
+    <t>栈记北京烤鸭</t>
+  </si>
+  <si>
+    <t>制作单不打印，打印测试页系统打印测试页都可以，后台配置也没问题</t>
+  </si>
+  <si>
+    <t>将注册表中midas相关的删除并重新注册midas文件</t>
+  </si>
+  <si>
+    <t>沽涷</t>
+  </si>
+  <si>
+    <t>我们系统报表中的第三方外卖实收金额与外卖后台的金额不同</t>
+  </si>
+  <si>
+    <t>原因：外卖平台小费金额没有开放，所以一般差异的金额是小费金额</t>
   </si>
 </sst>
 </file>
@@ -72,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -750,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +801,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1134,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1246,13 +1276,41 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11">
+        <v>43181</v>
+      </c>
+      <c r="B6" s="12">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="9"/>
@@ -1268,8 +1326,10 @@
       <c r="B11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
@@ -43,7 +43,7 @@
     <t>单据有27条但是打印配送单一页只打印13条</t>
   </si>
   <si>
-    <t>Ignore pagination参数关闭</t>
+    <t>Ignore pagination参数开启</t>
   </si>
   <si>
     <t>单位转换后价格除不尽进行二位四舍五入后，再进行订货的时候价格不对</t>
@@ -91,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -768,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,14 +805,8 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1165,7 +1159,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1280,7 +1274,7 @@
       <c r="A6" s="11">
         <v>43181</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1297,8 +1291,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>

--- a/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7950"/>
+    <workbookView windowWidth="20490" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>原因：外卖平台小费金额没有开放，所以一般差异的金额是小费金额</t>
+  </si>
+  <si>
+    <t>两个天堂</t>
+  </si>
+  <si>
+    <t>打印配送单上，品相金额比总额多一分钱</t>
+  </si>
+  <si>
+    <t>修改打印模板给对应字段增加四舍五入参数保留三位小数</t>
   </si>
 </sst>
 </file>
@@ -91,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -867,6 +876,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="586000eaca47cb3017b49038d46288b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13626465" y="638175"/>
+          <a:ext cx="6776720" cy="5448935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1158,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1306,8 +1358,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6">
+        <v>43203</v>
+      </c>
+      <c r="B8" s="9">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="9"/>
@@ -1328,5 +1397,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-刘乐乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8370"/>
+    <workbookView windowWidth="20490" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>修改打印模板给对应字段增加四舍五入参数保留三位小数</t>
+  </si>
+  <si>
+    <t>1.0SaaS无法启动，服务正常端口没有被占用但是无法进入saas</t>
+  </si>
+  <si>
+    <t>D盘空间满了，清理空间后重启电脑即可</t>
+  </si>
+  <si>
+    <t>TBTB</t>
+  </si>
+  <si>
+    <t>2.0SaaS自定义打印模板标签贴打印不显示道数</t>
+  </si>
+  <si>
+    <t>将制作单打印方式改成一菜一份一单即可</t>
   </si>
 </sst>
 </file>
@@ -99,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -136,6 +151,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -145,7 +168,120 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,127 +294,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -295,31 +310,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,151 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,26 +545,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +599,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,31 +638,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,19 +662,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,116 +683,116 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +831,18 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -883,15 +910,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3619500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>4162425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>170180</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>27305</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -908,8 +935,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13626465" y="638175"/>
-          <a:ext cx="6776720" cy="5448935"/>
+          <a:off x="14169390" y="276225"/>
+          <a:ext cx="6776720" cy="5448300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1210,8 +1237,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1378,21 +1405,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13">
+        <v>43216</v>
+      </c>
+      <c r="B9" s="14">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
